--- a/Core/Base/src/test/Resources/Excel files/Logindata.xlsx
+++ b/Core/Base/src/test/Resources/Excel files/Logindata.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Automation\Sypram\Core\Base\src\test\Resources\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationJava\Git\Sypram\Core\Base\src\test\Resources\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADED40F-02A6-4877-84F0-7AF9CD799BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -37,9 +36,6 @@
   </si>
   <si>
     <t>Admin4APHQ</t>
-  </si>
-  <si>
-    <t>AdminAPHQ</t>
   </si>
   <si>
     <t>#@$abc123</t>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -394,16 +390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -416,10 +412,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,18 +440,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,8 +464,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{27BF7A88-DC3B-4727-8145-5DB7DB11E3CF}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{5EBF2870-2DE1-48F1-A8C6-BD67B63D02D9}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
